--- a/Termos usados.xlsx
+++ b/Termos usados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fatecspgov-my.sharepoint.com/personal/sergio_fiore_fatec_sp_gov_br/Documents/estudos/Fatec/Iniciação Científica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EA2321-9400-4122-AD9B-EE9C92312920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{37EA2321-9400-4122-AD9B-EE9C92312920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C239CC2-1B3E-476C-B167-E35053868D2C}"/>
   <bookViews>
-    <workbookView xWindow="-23265" yWindow="1005" windowWidth="21885" windowHeight="15540" xr2:uid="{07C90AF0-43DD-4B2C-B9EF-844D643E2275}"/>
+    <workbookView minimized="1" xWindow="-23265" yWindow="1005" windowWidth="8565" windowHeight="15540" xr2:uid="{07C90AF0-43DD-4B2C-B9EF-844D643E2275}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Original</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Método do gradiente</t>
+  </si>
+  <si>
+    <t>stochastic gradient descent</t>
+  </si>
+  <si>
+    <t>Método do gradiente estocástico</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +77,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,9 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,16 +431,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669273D6-6249-4079-B17F-DC9866D9861B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,6 +457,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
